--- a/biology/Botanique/Coutarea/Coutarea.xlsx
+++ b/biology/Botanique/Coutarea/Coutarea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coutarea est un genre de plantes à fleurs néotropicale, appartenant à la famille des Rubiaceae, comptant 7 à 22 espèces, et dont l'espèce type est Coutarea speciosa Aubl.. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coutarea regroupe des arbres ou arbustes, terrestres, non armés. 
 Les feuilles sont opposées, pétiolées, à nervation non linéolée.
@@ -524,7 +538,7 @@
 On compte 6(7) étamines, insérées à la base du tube de la corolle, zygomorphes en raison de la courbure des filaments qui positionne les anthères ensemble sur la face inférieure de la corolle.
 Les anthères sont étroitement oblongues, dorsifixées près de la base, incluses ou extirpées.
 L'Ovaire est à 2 loges, contenant chacune de nombreux ovules, sur des placentas axiles. 
-Le fruit est une capsule, obovoïde à ellipsoïde, fortement aplatie perpendiculairement au septum, chartacée à ligneuse, septicide à partir de l'apex puis loculicide. Graines petites, aplaties, elliptiques, papilleuses, largement ailées[2].
+Le fruit est une capsule, obovoïde à ellipsoïde, fortement aplatie perpendiculairement au septum, chartacée à ligneuse, septicide à partir de l'apex puis loculicide. Graines petites, aplaties, elliptiques, papilleuses, largement ailées.
 </t>
         </is>
       </c>
@@ -553,9 +567,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coutarea est un genre néotropical représenté du Mexique à l'Argentine, en passant par l'Amérique Centrale, les Petites Antilles, la Colombie, le Venezuela, Trinidad, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, le Brésil, et le Paraguay[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coutarea est un genre néotropical représenté du Mexique à l'Argentine, en passant par l'Amérique Centrale, les Petites Antilles, la Colombie, le Venezuela, Trinidad, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, le Brésil, et le Paraguay.
 </t>
         </is>
       </c>
@@ -584,9 +600,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (31 mai 2024)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (31 mai 2024) :
 Coutarea alba Griseb.
 Coutarea diervilloides Planch. &amp; Linden
 Coutarea hexandra (Jacq.) K.Schum.
@@ -594,7 +612,7 @@
 Coutarea latiflora Sessé &amp; Moc., 1830
 Coutarea latifolia Moc. &amp; Sessé ex DC., 1830
 Coutarea mollis Cham.
-Selon Tropicos                                           (31 mai 2024)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (31 mai 2024) (Attention liste brute contenant possiblement des synonymes) :
 Coutarea acamptoclada B.L. Rob. &amp; Millsp., 1905
 Coutarea alba Griseb., 1879
 Coutarea andrei Standl., 1931
@@ -645,9 +663,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[5] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « COUTAREA. (Tabula 122.) 
 CAL. Perianthium monophyllum, oblongum, turbinatum, ſubcompreſſum, ſtriacum, ad baſim duabus ariſtis, oppoſitis, redis, muniturn e margine ſuperioris in ſex vel ſeptem lacinias, anguſtuſſimas, oblongas, ſecto.
 COR. monoperala, infundibuliformis, tubus longus, ſenſim ampliatus, ventricoſus, incurvus, diſco ſuprà germen infertus ; limbus ſex aut ſeptem-fidus, lobis brevibus, ſubrotundis, acutis, incurvis ; faux arnpla, patens.
